--- a/local/public/uploads/consignments (16).xlsx
+++ b/local/public/uploads/consignments (16).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70217120-FE1E-43B0-8AA5-FB5A37A6591B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792DFFD5-834D-4676-92BE-EA155F275753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -79,31 +79,19 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100001</t>
-  </si>
-  <si>
-    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
-  </si>
-  <si>
-    <t>111 หมู่บ้าน qqqqq , ต.บ้านระกาศ , อ.บางบ่อ, จ.สมุทรปราการ</t>
-  </si>
-  <si>
-    <t>O121110100003</t>
-  </si>
-  <si>
-    <t>Sirisak P</t>
-  </si>
-  <si>
-    <t>206 m.5, ต.คลองท่อมเหนือ , อ.คลองท่อม, จ.กระบี่</t>
-  </si>
-  <si>
-    <t>Tel. 1234567890</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>bbbbbbbbbbbbbbb</t>
+    <t>O121110400031</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxx, ต.ดงลิง , อ.กมลาไสย, จ.กาฬสินธุ์</t>
+  </si>
+  <si>
+    <t>Tel. 33333333333</t>
+  </si>
+  <si>
+    <t>sssssssssssssssssss</t>
   </si>
 </sst>
 </file>
@@ -450,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +450,7 @@
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
@@ -539,7 +527,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -551,32 +539,12 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>10560</v>
+        <v>46130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
       </c>
       <c r="S2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>81120</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3">
         <v>1</v>
       </c>
     </row>
